--- a/biology/Zoologie/Juditha_odites/Juditha_odites.xlsx
+++ b/biology/Zoologie/Juditha_odites/Juditha_odites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juditha odites est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Juditha.
 </t>
@@ -511,14 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juditha odites a été décrit par Pieter Cramer en 1775 sous le nom de Papilio odites[1]
-Sous-espèces
-Juditha odites odites; présent en Guyane, en Guyana, au Venezuela, au Brésil et au Pérou.
-Juditha odites praeclarum (Bates, 1866); présent au Costa Rica, en Colombie et dans le nord-ouest de l'Équateur.
-Noms vernaculaires
-Juditha odites se nomme Odites Metalmark en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha odites a été décrit par Pieter Cramer en 1775 sous le nom de Papilio odites
 </t>
         </is>
       </c>
@@ -544,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juditha odites est un papillon à l'apex des ailes antérieures formant un angle bien marqué, de couleur jaune à jaune très clair presque blanc avec une partie basale et une double bordure du bord externe des ailes antérieures et postérieures ocre roux foncé.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juditha odites odites; présent en Guyane, en Guyana, au Venezuela, au Brésil et au Pérou.
+Juditha odites praeclarum (Bates, 1866); présent au Costa Rica, en Colombie et dans le nord-ouest de l'Équateur.</t>
         </is>
       </c>
     </row>
@@ -575,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenilles sont des Ficus, Heisteria cocinna et Pseudobombax septenatum[1].  
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha odites se nomme Odites Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -607,15 +627,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha odites est un papillon à l'apex des ailes antérieures formant un angle bien marqué, de couleur jaune à jaune très clair presque blanc avec une partie basale et une double bordure du bord externe des ailes antérieures et postérieures ocre roux foncé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juditha_odites</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_odites</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenilles sont des Ficus, Heisteria cocinna et Pseudobombax septenatum.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Juditha_odites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_odites</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juditha  odites est présent au Costa Rica, en Colombie, dans le nord-ouest de l'Équateur, en Guyane, en Guyana, au Venezuela, au Brésil et au Pérou[1].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha  odites est présent au Costa Rica, en Colombie, dans le nord-ouest de l'Équateur, en Guyane, en Guyana, au Venezuela, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Juditha_odites</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_odites</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
